--- a/results/CNN_2layers_adaptive_avgpool=2/sfcc_CNN_2layers_adaptive_avgpool_2_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_avgpool=2/sfcc_CNN_2layers_adaptive_avgpool_2_PCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_avgpool=2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111DC75E-C973-4552-BF2F-EC0EB94E3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF4E6E-844D-44C1-91F5-B39239516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,154 +35,155 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>sub1ex1</t>
+  </si>
+  <si>
+    <t>sub1ex2</t>
+  </si>
+  <si>
+    <t>sub1ex3</t>
+  </si>
+  <si>
+    <t>sub2ex1</t>
+  </si>
+  <si>
+    <t>sub2ex2</t>
+  </si>
+  <si>
+    <t>sub2ex3</t>
+  </si>
+  <si>
+    <t>sub3ex1</t>
+  </si>
+  <si>
+    <t>sub3ex2</t>
+  </si>
+  <si>
+    <t>sub3ex3</t>
+  </si>
+  <si>
+    <t>sub4ex1</t>
+  </si>
+  <si>
+    <t>sub4ex2</t>
+  </si>
+  <si>
+    <t>sub4ex3</t>
+  </si>
+  <si>
+    <t>sub5ex1</t>
+  </si>
+  <si>
+    <t>sub5ex2</t>
+  </si>
+  <si>
+    <t>sub5ex3</t>
+  </si>
+  <si>
+    <t>sub6ex1</t>
+  </si>
+  <si>
+    <t>sub6ex2</t>
+  </si>
+  <si>
+    <t>sub6ex3</t>
+  </si>
+  <si>
+    <t>sub7ex1</t>
+  </si>
+  <si>
+    <t>sub7ex2</t>
+  </si>
+  <si>
+    <t>sub7ex3</t>
+  </si>
+  <si>
+    <t>sub8ex1</t>
+  </si>
+  <si>
+    <t>sub8ex2</t>
+  </si>
+  <si>
+    <t>sub8ex3</t>
+  </si>
+  <si>
+    <t>sub9ex1</t>
+  </si>
+  <si>
+    <t>sub9ex2</t>
+  </si>
+  <si>
+    <t>sub9ex3</t>
+  </si>
+  <si>
+    <t>sub10ex1</t>
+  </si>
+  <si>
+    <t>sub10ex2</t>
+  </si>
+  <si>
+    <t>sub10ex3</t>
+  </si>
+  <si>
+    <t>sub11ex1</t>
+  </si>
+  <si>
+    <t>sub11ex2</t>
+  </si>
+  <si>
+    <t>sub11ex3</t>
+  </si>
+  <si>
+    <t>sub12ex1</t>
+  </si>
+  <si>
+    <t>sub12ex2</t>
+  </si>
+  <si>
+    <t>sub12ex3</t>
+  </si>
+  <si>
+    <t>sub13ex1</t>
+  </si>
+  <si>
+    <t>sub13ex2</t>
+  </si>
+  <si>
+    <t>sub13ex3</t>
+  </si>
+  <si>
+    <t>sub14ex1</t>
+  </si>
+  <si>
+    <t>sub14ex2</t>
+  </si>
+  <si>
+    <t>sub14ex3</t>
+  </si>
+  <si>
+    <t>sub15ex1</t>
+  </si>
+  <si>
+    <t>sub15ex2</t>
+  </si>
+  <si>
+    <t>sub15ex3</t>
+  </si>
+  <si>
     <t>Identifier</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>f1_score</t>
-  </si>
-  <si>
-    <t>sub1ex1</t>
-  </si>
-  <si>
-    <t>sub1ex2</t>
-  </si>
-  <si>
-    <t>sub1ex3</t>
-  </si>
-  <si>
-    <t>sub2ex1</t>
-  </si>
-  <si>
-    <t>sub2ex2</t>
-  </si>
-  <si>
-    <t>sub2ex3</t>
-  </si>
-  <si>
-    <t>sub3ex1</t>
-  </si>
-  <si>
-    <t>sub3ex2</t>
-  </si>
-  <si>
-    <t>sub3ex3</t>
-  </si>
-  <si>
-    <t>sub4ex1</t>
-  </si>
-  <si>
-    <t>sub4ex2</t>
-  </si>
-  <si>
-    <t>sub4ex3</t>
-  </si>
-  <si>
-    <t>sub5ex1</t>
-  </si>
-  <si>
-    <t>sub5ex2</t>
-  </si>
-  <si>
-    <t>sub5ex3</t>
-  </si>
-  <si>
-    <t>sub6ex1</t>
-  </si>
-  <si>
-    <t>sub6ex2</t>
-  </si>
-  <si>
-    <t>sub6ex3</t>
-  </si>
-  <si>
-    <t>sub7ex1</t>
-  </si>
-  <si>
-    <t>sub7ex2</t>
-  </si>
-  <si>
-    <t>sub7ex3</t>
-  </si>
-  <si>
-    <t>sub8ex1</t>
-  </si>
-  <si>
-    <t>sub8ex2</t>
-  </si>
-  <si>
-    <t>sub8ex3</t>
-  </si>
-  <si>
-    <t>sub9ex1</t>
-  </si>
-  <si>
-    <t>sub9ex2</t>
-  </si>
-  <si>
-    <t>sub9ex3</t>
-  </si>
-  <si>
-    <t>sub10ex1</t>
-  </si>
-  <si>
-    <t>sub10ex2</t>
-  </si>
-  <si>
-    <t>sub10ex3</t>
-  </si>
-  <si>
-    <t>sub11ex1</t>
-  </si>
-  <si>
-    <t>sub11ex2</t>
-  </si>
-  <si>
-    <t>sub11ex3</t>
-  </si>
-  <si>
-    <t>sub12ex1</t>
-  </si>
-  <si>
-    <t>sub12ex2</t>
-  </si>
-  <si>
-    <t>sub12ex3</t>
-  </si>
-  <si>
-    <t>sub13ex1</t>
-  </si>
-  <si>
-    <t>sub13ex2</t>
-  </si>
-  <si>
-    <t>sub13ex3</t>
-  </si>
-  <si>
-    <t>sub14ex1</t>
-  </si>
-  <si>
-    <t>sub14ex2</t>
-  </si>
-  <si>
-    <t>sub14ex3</t>
-  </si>
-  <si>
-    <t>sub15ex1</t>
-  </si>
-  <si>
-    <t>sub15ex2</t>
-  </si>
-  <si>
-    <t>sub15ex3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,6 +202,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -561,24 +563,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>88.407079646017706</v>
@@ -595,7 +597,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>85.103417849635377</v>
@@ -612,7 +614,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>84.808432598897909</v>
@@ -629,7 +631,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>86.849194197181646</v>
@@ -646,7 +648,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>86.146073927975152</v>
@@ -663,7 +665,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>87.168141592920364</v>
@@ -680,7 +682,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>81.653474511025181</v>
@@ -697,7 +699,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>88.407598681649489</v>
@@ -714,7 +716,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>88.849557522123888</v>
@@ -731,7 +733,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>89.882005899705021</v>
@@ -748,7 +750,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>82.920526994178147</v>
@@ -765,7 +767,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>89.233038348082601</v>
@@ -782,7 +784,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>89.823527885189321</v>
@@ -799,7 +801,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>89.587366672722084</v>
@@ -816,7 +818,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>76.343393973996314</v>
@@ -837,7 +839,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>84.483775811209441</v>
@@ -854,7 +856,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>92.212562392408245</v>
@@ -871,7 +873,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>86.637341153470189</v>
@@ -888,7 +890,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>90.147492625368727</v>
@@ -905,7 +907,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>94.277286135693217</v>
@@ -922,7 +924,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>91.740412979351021</v>
@@ -939,7 +941,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>92.566371681415916</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>96.165364752290245</v>
@@ -973,7 +975,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>97.640117994100294</v>
@@ -990,7 +992,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>93.569494545800566</v>
@@ -1007,7 +1009,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>91.062119914532133</v>
@@ -1024,7 +1026,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>94.132215676606194</v>
@@ -1041,7 +1043,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>90.884955752212392</v>
@@ -1058,7 +1060,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>88.938053097345147</v>
@@ -1075,7 +1077,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>91.918096177302573</v>
@@ -1096,7 +1098,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>93.333506345210594</v>
@@ -1113,7 +1115,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>95.694253410496628</v>
@@ -1130,7 +1132,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>95.103417849635377</v>
@@ -1147,7 +1149,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>91.652955475393384</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>87.759496189413397</v>
@@ -1181,7 +1183,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>92.568793847697648</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>89.911504424778769</v>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>91.534096315712077</v>
@@ -1232,7 +1234,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>91.504424778761063</v>
@@ -1249,7 +1251,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>89.175079369198698</v>
@@ -1266,7 +1268,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>81.829427590204062</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>82.006072716892021</v>
@@ -1300,7 +1302,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>97.020821979428888</v>
@@ -1317,7 +1319,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>97.817109144542769</v>
@@ -1334,7 +1336,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>93.156342182890853</v>
